--- a/Marketing.Mvc/DadosApp/Programa de incidência Coca-Cola (Responses) - Teste.xlsx
+++ b/Marketing.Mvc/DadosApp/Programa de incidência Coca-Cola (Responses) - Teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJETO\Marketing\Marketing.Mvc\DadosApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A256B2-5A49-4CAF-BDE7-BBD34B59EBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA325F12-61DF-4182-89CE-A72BB2B0136D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -1048,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1066,7 +1066,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,7 +1384,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
+      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4545,12 +4544,6 @@
       <c r="E139" t="s">
         <v>319</v>
       </c>
-      <c r="G139">
-        <v>20175900000187</v>
-      </c>
-      <c r="J139">
-        <v>24840166000508</v>
-      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
@@ -4562,7 +4555,7 @@
       <c r="C140" t="s">
         <v>320</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="6">
         <v>15442958000100</v>
       </c>
       <c r="E140" t="s">
@@ -4570,9 +4563,6 @@
       </c>
       <c r="G140">
         <v>20175900000187</v>
-      </c>
-      <c r="J140">
-        <v>24840166000508</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4585,7 +4575,7 @@
       <c r="C141" t="s">
         <v>321</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="6">
         <v>15442958000100</v>
       </c>
       <c r="E141" t="s">
@@ -4593,9 +4583,6 @@
       </c>
       <c r="G141">
         <v>20175900000187</v>
-      </c>
-      <c r="J141">
-        <v>24840166000508</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -4887,7 +4874,7 @@
   <customSheetViews>
     <customSheetView guid="{67DD6C44-481D-4E0F-B5DC-DFC4219D2D3D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:AF138" xr:uid="{55F95415-AE45-442B-998F-D459D0A957DC}"/>
+      <autoFilter ref="A1:AF138" xr:uid="{DC6CA3E1-E9FC-4467-B6CF-08FACC82EE21}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
